--- a/biology/Zoologie/Guppy_(poisson)/Guppy_(poisson).xlsx
+++ b/biology/Zoologie/Guppy_(poisson)/Guppy_(poisson).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guppy est un nom vernaculaire ambigu en français, pouvant désigner plusieurs espèces différentes de poissons au sein de la famille des Poeciliidae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot « guppy » vient de l'anglais, guppy. Le nom a été donné en 1866 au poisson de l'espèce Girardinus guppyi (syn. Poecilia reticulata) par Albert Charles Lewis Günther (1830-1914), en hommage à Robert John Lechmere Guppy, un botaniste, naturaliste et explorateur britannique (1836-1916).
 </t>
@@ -542,21 +556,23 @@
           <t>Noms vernaculaires et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste alphabétique de noms vernaculaires attestés[1] en français. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste alphabétique de noms vernaculaires attestés en français. 
 Note : certaines espèces ont plusieurs noms et, les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide. En gras, l'espèce la plus connue des francophones.
-Guppy (ou Guppie) - Poecilia reticulata[2]
-Guppy de Campoma - Poecilia wingei[3]
-Guppy doré - voir Guppy[3]
-Guppy Endler - voir Guppy de Campoma[3]
-Guppy de Gaulle - voir Guppy[2]
-Guppy des marécages  - Gambusia affinis[4] ou Poecilia picta[5]
-Guppy néon bleu - voir Guppy[2]
-Guppy de l'Oropuche - Poecilia obscura[6]
-Guppy Picasso - voir Guppy de Campoma[3]
-Guppy « sauvage » - voir Guppy de Campoma[3] ou Gambusia affinis
-Guppy ananas - voir Guppy [7]</t>
+Guppy (ou Guppie) - Poecilia reticulata
+Guppy de Campoma - Poecilia wingei
+Guppy doré - voir Guppy
+Guppy Endler - voir Guppy de Campoma
+Guppy de Gaulle - voir Guppy
+Guppy des marécages  - Gambusia affinis ou Poecilia picta
+Guppy néon bleu - voir Guppy
+Guppy de l'Oropuche - Poecilia obscura
+Guppy Picasso - voir Guppy de Campoma
+Guppy « sauvage » - voir Guppy de Campoma ou Gambusia affinis
+Guppy ananas - voir Guppy </t>
         </is>
       </c>
     </row>
